--- a/IdUnico - enviado para o professor/solicitacaoMudanca.xlsx
+++ b/IdUnico - enviado para o professor/solicitacaoMudanca.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>IdUnico - SOLICITAÇÃO DE MUDANÇA - Gestão de Projeto de Software II (2015.1)</t>
   </si>
@@ -188,7 +188,7 @@
     <t>As datas especificadas no registro do status de aceitação, adaptadas para o novo cronograma</t>
   </si>
   <si>
-    <t>Datas de entregas na declaração do escopo estávam fora do tempo estimado no cronograma</t>
+    <t>Datas de entregas na declaração do escopo estavam fora do tempo estimado no cronograma</t>
   </si>
   <si>
     <t>Escopo</t>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Adição de tarefa de construção do chip para a terceirizada</t>
+  </si>
+  <si>
+    <t>EAP não representava o gerenciamento da equipe</t>
+  </si>
+  <si>
+    <t>Foi incluído na EAP atividade de gerenciamento de equipes</t>
   </si>
 </sst>
 </file>
@@ -413,245 +419,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2808000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10148760" cy="10858320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2808000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10148760" cy="10858320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2808000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10148760" cy="10858320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2808000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10148760" cy="10858320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2808000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10148760" cy="10858320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="7" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
@@ -851,6 +627,7 @@
       <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -868,8 +645,9 @@
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
@@ -887,6 +665,24 @@
       </c>
       <c r="F12" s="7"/>
     </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -904,7 +700,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IdUnico - enviado para o professor/solicitacaoMudanca.xlsx
+++ b/IdUnico - enviado para o professor/solicitacaoMudanca.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>IdUnico - SOLICITAÇÃO DE MUDANÇA - Gestão de Projeto de Software II (2015.1)</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Foi incluído na EAP atividade de gerenciamento de equipes</t>
+  </si>
+  <si>
+    <t>Não estava explicito no escopo que a produção do chip e leitor seriam feito de forma terceirizada. </t>
+  </si>
+  <si>
+    <t>Foi incluído uma restrição da declaração de escopo.</t>
   </si>
 </sst>
 </file>
@@ -426,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,7 +653,7 @@
       </c>
       <c r="F11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
@@ -665,24 +671,42 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
